--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail9 Features.xlsx
@@ -2314,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,29 +2325,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2368,115 +2366,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2493,72 +2481,66 @@
         <v>4.4513644361328e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.784219812282392</v>
+        <v>1.373962355363432e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.007078774938859</v>
+        <v>2.268043999635395e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.373962355363432e-06</v>
+        <v>0.04305180401475772</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.268043999635395e-06</v>
+        <v>0.06249749946643243</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04305180401475772</v>
+        <v>0.005757457399006705</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06249749946643243</v>
+        <v>1.743349985965322</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.005757457399006705</v>
+        <v>1.60812361957592</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.670728521052997</v>
+        <v>4.314432335480927</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.60812361957592</v>
+        <v>2.060129478175933e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.314432335480927</v>
+        <v>83460676.14699718</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.060129478175933e-15</v>
+        <v>1.37242420254476e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>83460676.14699718</v>
+        <v>14.35021189772111</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.37242420254476e-06</v>
+        <v>0.000152550488762873</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>14.35021189772111</v>
+        <v>7.943934539236206</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000152550488762873</v>
+        <v>1.646912487289852</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.943934539236206</v>
+        <v>0.009626865783174617</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.646912487289852</v>
+        <v>3.062769074757437</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009626865783174617</v>
+        <v>0.9521787293652431</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.062769074757437</v>
+        <v>1.760407939327838</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9521787293652431</v>
+        <v>43</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.760407939327838</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1757466481154943</v>
       </c>
     </row>
@@ -2573,72 +2555,66 @@
         <v>4.295857980608364e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8398129933339535</v>
+        <v>1.303922005964094e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.909595689985331</v>
+        <v>2.286542619261606e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.303922005964094e-06</v>
+        <v>0.04170977037806267</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.286542619261606e-06</v>
+        <v>0.06323405916964009</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04170977037806267</v>
+        <v>0.005737239400976152</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06323405916964009</v>
+        <v>1.750558124953925</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005737239400976152</v>
+        <v>1.728321679928621</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.684181563011482</v>
+        <v>4.294589153645569</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.728321679928621</v>
+        <v>2.079211147899982e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.294589153645569</v>
+        <v>82581920.45396632</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.079211147899982e-15</v>
+        <v>1.389869320190571e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>82581920.45396632</v>
+        <v>14.1797492658848</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.389869320190571e-06</v>
+        <v>0.0001394399206993409</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.1797492658848</v>
+        <v>8.756783569104556</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001394399206993409</v>
+        <v>1.281639847607137</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.756783569104556</v>
+        <v>0.01069242860103856</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.281639847607137</v>
+        <v>3.017094088051731</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01069242860103856</v>
+        <v>0.9531846455146445</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.017094088051731</v>
+        <v>1.772314234269087</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9531846455146445</v>
+        <v>43</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.772314234269087</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1863810564893998</v>
       </c>
     </row>
@@ -2653,72 +2629,66 @@
         <v>4.148358277020706e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9029429574680905</v>
+        <v>1.253189603111112e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7796675728154163</v>
+        <v>2.304016699506999e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.253189603111112e-06</v>
+        <v>0.0411823126060418</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.304016699506999e-06</v>
+        <v>0.06485148837052553</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0411823126060418</v>
+        <v>0.00590121723537643</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06485148837052553</v>
+        <v>1.725947105544285</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.00590121723537643</v>
+        <v>1.704456598624994</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.653104415661454</v>
+        <v>4.254256908662786</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.704456598624994</v>
+        <v>2.118821715235574e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.254256908662786</v>
+        <v>81927971.82826628</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.118821715235574e-15</v>
+        <v>1.393839298748112e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>81927971.82826628</v>
+        <v>14.22193936969493</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.393839298748112e-06</v>
+        <v>0.0001316717329060623</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>14.22193936969493</v>
+        <v>9.375974946091553</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001316717329060623</v>
+        <v>1.143510448212536</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.375974946091553</v>
+        <v>0.01157511801587907</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.143510448212536</v>
+        <v>2.854421102820404</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01157511801587907</v>
+        <v>0.9529675721055871</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.854421102820404</v>
+        <v>1.747977703470654</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9529675721055871</v>
+        <v>39</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.747977703470654</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2011184584045932</v>
       </c>
     </row>
@@ -2733,72 +2703,66 @@
         <v>4.00391756100883e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.9717051158456202</v>
+        <v>1.216083954008626e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6209309961317535</v>
+        <v>2.320781211348199e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.216083954008626e-06</v>
+        <v>0.04114525072164815</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.320781211348199e-06</v>
+        <v>0.06706506793915733</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04114525072164815</v>
+        <v>0.006190465499171492</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.06706506793915733</v>
+        <v>1.728041213296666</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.006190465499171492</v>
+        <v>1.75295012729943</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.652770557717394</v>
+        <v>4.2170959263059</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.75295012729943</v>
+        <v>2.156328290634062e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.2170959263059</v>
+        <v>80936506.18381366</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.156328290634062e-15</v>
+        <v>1.413355137664044e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>80936506.18381366</v>
+        <v>14.12549861904754</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.413355137664044e-06</v>
+        <v>0.0001281981123746019</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.12549861904754</v>
+        <v>8.434188907533587</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001281981123746019</v>
+        <v>1.20581381084728</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.434188907533587</v>
+        <v>0.009119442274828022</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.20581381084728</v>
+        <v>2.995735641332148</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009119442274828022</v>
+        <v>0.954484314611758</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.995735641332148</v>
+        <v>1.763906284036302</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.954484314611758</v>
+        <v>43</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.763906284036302</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1959693416561591</v>
       </c>
     </row>
@@ -2813,72 +2777,66 @@
         <v>3.858785311483176e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.044810587271769</v>
+        <v>1.188317688645921e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4343363541035945</v>
+        <v>2.337011533514515e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.188317688645921e-06</v>
+        <v>0.0414672314154385</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.337011533514515e-06</v>
+        <v>0.06970388820094128</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0414672314154385</v>
+        <v>0.006578128688781979</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06970388820094128</v>
+        <v>1.728043858716451</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006578128688781979</v>
+        <v>1.707462068191817</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.65094865478377</v>
+        <v>4.159837453352369</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.707462068191817</v>
+        <v>2.216098803489919e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.159837453352369</v>
+        <v>78853891.78133185</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.216098803489919e-15</v>
+        <v>1.455866631014374e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>78853891.78133185</v>
+        <v>13.77956108172288</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.455866631014374e-06</v>
+        <v>0.0001344290664580333</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.77956108172288</v>
+        <v>7.814248578003411</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001344290664580333</v>
+        <v>1.400800483314752</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.814248578003411</v>
+        <v>0.008208572294775238</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.400800483314752</v>
+        <v>3.079055237145552</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008208572294775238</v>
+        <v>0.9539629157045625</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.079055237145552</v>
+        <v>1.776876424964886</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9539629157045625</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.776876424964886</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1853697857492595</v>
       </c>
     </row>
@@ -2893,72 +2851,66 @@
         <v>3.710175520833074e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.121290661871934</v>
+        <v>1.16661997472992e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2193818780723387</v>
+        <v>2.352807172557354e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.16661997472992e-06</v>
+        <v>0.04204584210882188</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.352807172557354e-06</v>
+        <v>0.07274065556015084</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04204584210882188</v>
+        <v>0.00705910545508401</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07274065556015084</v>
+        <v>1.716196631151304</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.00705910545508401</v>
+        <v>1.644758372469183</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.639158497321137</v>
+        <v>4.150324807830009</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.644758372469183</v>
+        <v>2.22626915033113e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.150324807830009</v>
+        <v>78798018.11549798</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.22626915033113e-15</v>
+        <v>1.448842319697406e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>78798018.11549798</v>
+        <v>13.82318935754438</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.448842319697406e-06</v>
+        <v>0.0001498947721021794</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>13.82318935754438</v>
+        <v>8.267588683606792</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001498947721021794</v>
+        <v>1.512670850363735</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.267588683606792</v>
+        <v>0.01024576075131324</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.512670850363735</v>
+        <v>3.061614098118298</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01024576075131324</v>
+        <v>0.9523034082680563</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.061614098118298</v>
+        <v>1.752924703720502</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9523034082680563</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.752924703720502</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1772323490997376</v>
       </c>
     </row>
@@ -3335,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.435638093402119</v>
+        <v>1.425382325289635</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.424703365918232</v>
@@ -3424,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.432230528857656</v>
+        <v>1.426221752370083</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.584465344213335</v>
@@ -3513,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426251015002998</v>
+        <v>1.417622466924126</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.170588714510478</v>
@@ -3602,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.434494827235447</v>
+        <v>1.430348351887521</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.198650984369157</v>
@@ -3691,7 +3643,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.410696031833614</v>
+        <v>1.404421954777747</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.204128591561678</v>
@@ -3780,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.405446175724637</v>
+        <v>1.393187723000444</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.294092183324612</v>
@@ -3869,7 +3821,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.395748321063655</v>
+        <v>1.378374457901702</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.326986295114242</v>
@@ -3958,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.36948028160891</v>
+        <v>1.353385864978126</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.366555256127062</v>
@@ -4047,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.350493825803778</v>
+        <v>1.332221436168059</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.374024249529874</v>
@@ -4136,7 +4088,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.34167281386461</v>
+        <v>1.323718516803503</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.329541520972628</v>
@@ -4225,7 +4177,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.336271745152468</v>
+        <v>1.315199859574712</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.450082168986662</v>
@@ -4314,7 +4266,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.330840080543768</v>
+        <v>1.314078993606166</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420834415321299</v>
@@ -4403,7 +4355,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.324217371837016</v>
+        <v>1.306218499158151</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.359890842912327</v>
@@ -4492,7 +4444,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.302019455125157</v>
+        <v>1.281011639934357</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.445624927889062</v>
@@ -4581,7 +4533,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.299299181070612</v>
+        <v>1.280291592016175</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.479070559483167</v>
@@ -4670,7 +4622,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.299887387181937</v>
+        <v>1.280331408882911</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.404189255131601</v>
@@ -4759,7 +4711,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.30701742429257</v>
+        <v>1.282496029039796</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.478928429180674</v>
@@ -4848,7 +4800,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.315459465110605</v>
+        <v>1.285686877458577</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.543802250207948</v>
@@ -4937,7 +4889,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.331219601819697</v>
+        <v>1.297259865833426</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.134529542391904</v>
@@ -5026,7 +4978,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.341755213467993</v>
+        <v>1.308295902827387</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.495150943330885</v>
@@ -5115,7 +5067,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.345389173587923</v>
+        <v>1.308280242319743</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.364671916502535</v>
@@ -5204,7 +5156,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.335849374505682</v>
+        <v>1.305098169534714</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.534919175553692</v>
@@ -5293,7 +5245,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346871480897839</v>
+        <v>1.312568371831876</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.56946827975715</v>
@@ -5382,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.343479984348949</v>
+        <v>1.311409902141861</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.650391760149573</v>
@@ -5471,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.307485010142622</v>
+        <v>1.27201479564875</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.733815595504919</v>
@@ -5560,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.309577009382078</v>
+        <v>1.283535363071117</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.753174449523845</v>
@@ -5649,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.305136974188693</v>
+        <v>1.277239260875291</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.722884865532049</v>
@@ -5738,7 +5690,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.307630950506087</v>
+        <v>1.280572437676337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.714591814099677</v>
@@ -5827,7 +5779,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.326875680801047</v>
+        <v>1.304227396611423</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.717174127197571</v>
@@ -5916,7 +5868,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.324850899185859</v>
+        <v>1.304396287710818</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.705811745757166</v>
@@ -6005,7 +5957,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.291268104029875</v>
+        <v>1.272992543641978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.756315197960885</v>
@@ -6094,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.287466684609588</v>
+        <v>1.270088914484818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.771047430751</v>
@@ -6183,7 +6135,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.285716439659965</v>
+        <v>1.270180387155053</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.752936918923172</v>
@@ -6272,7 +6224,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.274908107818234</v>
+        <v>1.264009092632748</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.757583513233189</v>
@@ -6361,7 +6313,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.271128797948285</v>
+        <v>1.261243814486244</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.739098056284276</v>
@@ -6450,7 +6402,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.254341367127189</v>
+        <v>1.245687968732132</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.75040385865511</v>
@@ -6539,7 +6491,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.255699568776979</v>
+        <v>1.248872725808347</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.785050521871272</v>
@@ -6628,7 +6580,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.246480501941376</v>
+        <v>1.240087334328863</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.749470078584691</v>
@@ -6717,7 +6669,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.244484023019102</v>
+        <v>1.237567659906629</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.753629818603871</v>
@@ -6806,7 +6758,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.272009769383687</v>
+        <v>1.269834535917709</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.991682022079109</v>
@@ -6895,7 +6847,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.269195714318058</v>
+        <v>1.263223645393484</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.983937396163993</v>
@@ -6984,7 +6936,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.26346921688349</v>
+        <v>1.259659436326576</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.953504860688144</v>
@@ -7073,7 +7025,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.248564485202989</v>
+        <v>1.24561763853646</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.95019678327828</v>
@@ -7162,7 +7114,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.267703358070637</v>
+        <v>1.27242543405154</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.957164149798702</v>
@@ -7251,7 +7203,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.275117601473343</v>
+        <v>1.277796037357462</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.952047721332131</v>
@@ -7340,7 +7292,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.309586845186232</v>
+        <v>1.317036311014385</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.925058961194738</v>
@@ -7429,7 +7381,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.306851052778111</v>
+        <v>1.315601489684166</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.935496485866934</v>
@@ -7518,7 +7470,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.316890243202923</v>
+        <v>1.320366254884522</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.81856281617563</v>
@@ -7607,7 +7559,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.297469818137896</v>
+        <v>1.296920131637935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.781810211370427</v>
@@ -7696,7 +7648,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.293433217909458</v>
+        <v>1.290720618466327</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.821040162557496</v>
@@ -7785,7 +7737,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.342460955175129</v>
+        <v>1.351121984323947</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.80257433858651</v>
@@ -8071,7 +8023,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.604237670082033</v>
+        <v>1.56242323660802</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.94453911763902</v>
@@ -8160,7 +8112,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.626131536309791</v>
+        <v>1.589132522673538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.966173989163357</v>
@@ -8249,7 +8201,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635519229611292</v>
+        <v>1.601164039341708</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.336307599358992</v>
@@ -8338,7 +8290,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.632204298627846</v>
+        <v>1.60653456590813</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.15128640117995</v>
@@ -8427,7 +8379,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630707121496457</v>
+        <v>1.611553106366501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.941912338980935</v>
@@ -8516,7 +8468,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648170242931213</v>
+        <v>1.634458193709421</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.228229675902717</v>
@@ -8605,7 +8557,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.651890748709253</v>
+        <v>1.639332903875624</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.10748480835707</v>
@@ -8694,7 +8646,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637809380243212</v>
+        <v>1.633222119139242</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.429993271523673</v>
@@ -8783,7 +8735,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.646573410717428</v>
+        <v>1.640954747546254</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.107325857762557</v>
@@ -8872,7 +8824,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.644065339116072</v>
+        <v>1.651673071468033</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.562907703972416</v>
@@ -8961,7 +8913,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636194521289424</v>
+        <v>1.650688084128264</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.548796560598714</v>
@@ -9050,7 +9002,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.63768297232985</v>
+        <v>1.655685968372721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.276939636599137</v>
@@ -9139,7 +9091,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640292619883159</v>
+        <v>1.660037844552544</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.306604758515062</v>
@@ -9228,7 +9180,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608712788664207</v>
+        <v>1.626992326726757</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.157437565555235</v>
@@ -9317,7 +9269,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592311856680549</v>
+        <v>1.61048276273014</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.269116756009704</v>
@@ -9406,7 +9358,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582406898253337</v>
+        <v>1.599256396297779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.053050531298454</v>
@@ -9495,7 +9447,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584532572478902</v>
+        <v>1.603290421486135</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.283632386611306</v>
@@ -9584,7 +9536,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584623054410539</v>
+        <v>1.598381768344435</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.320402404356905</v>
@@ -9673,7 +9625,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.571493345984899</v>
+        <v>1.580634115677821</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.142807775185191</v>
@@ -9762,7 +9714,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.557958243798968</v>
+        <v>1.565263789519594</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.04860972309001</v>
@@ -9851,7 +9803,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53496095896738</v>
+        <v>1.540212849203004</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.92108262350547</v>
@@ -9940,7 +9892,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514208759866885</v>
+        <v>1.521092674680656</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.234514969609743</v>
@@ -10029,7 +9981,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.515402597078416</v>
+        <v>1.521914994754216</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.379544753494574</v>
@@ -10118,7 +10070,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.507537280483927</v>
+        <v>1.515195227249428</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.39275280719442</v>
@@ -10207,7 +10159,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.520713079327547</v>
+        <v>1.524116403136141</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.685461636692999</v>
@@ -10296,7 +10248,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.525234608741839</v>
+        <v>1.527956667537828</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.696790021552326</v>
@@ -10385,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.508707284165115</v>
+        <v>1.512689353763616</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.690240540457233</v>
@@ -10474,7 +10426,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.50289212462965</v>
+        <v>1.50672385075427</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.67922578773601</v>
@@ -10563,7 +10515,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.512383804138862</v>
+        <v>1.518259846838403</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.694977322086005</v>
@@ -10652,7 +10604,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510512876277858</v>
+        <v>1.514080733768588</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.683720624994136</v>
@@ -10741,7 +10693,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511499405350236</v>
+        <v>1.519961805471737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.69621652143973</v>
@@ -10830,7 +10782,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50582151449617</v>
+        <v>1.511299857798156</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.692274571542863</v>
@@ -10919,7 +10871,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500222343581208</v>
+        <v>1.507278184245665</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.675375259883112</v>
@@ -11008,7 +10960,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512374129976535</v>
+        <v>1.525485721059057</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.648847127415127</v>
@@ -11097,7 +11049,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.518529669147476</v>
+        <v>1.530162596179646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.658033014826887</v>
@@ -11186,7 +11138,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527661214215932</v>
+        <v>1.534232026774779</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.698412346102149</v>
@@ -11275,7 +11227,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540648575268735</v>
+        <v>1.545580838518763</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.631765531898222</v>
@@ -11364,7 +11316,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.547016936787275</v>
+        <v>1.551912106890086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.635892171767422</v>
@@ -11453,7 +11405,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548114277999772</v>
+        <v>1.557259751301253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.630996313080724</v>
@@ -11542,7 +11494,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537345657474544</v>
+        <v>1.547240143488264</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.731357494741876</v>
@@ -11631,7 +11583,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541699879281205</v>
+        <v>1.549326375733888</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.611483222144428</v>
@@ -11720,7 +11672,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550916343671046</v>
+        <v>1.556757534020288</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.895052311669366</v>
@@ -11809,7 +11761,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.418958826259314</v>
+        <v>1.42806201468654</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.641813453056878</v>
@@ -11898,7 +11850,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.416499066397444</v>
+        <v>1.438160437160166</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.663387602520595</v>
@@ -11987,7 +11939,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.415700348238285</v>
+        <v>1.441560624787479</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.652645932000275</v>
@@ -12076,7 +12028,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.408043196617115</v>
+        <v>1.427612931939373</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.637688752841575</v>
@@ -12165,7 +12117,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.398092875926337</v>
+        <v>1.422793539643384</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.662433292656221</v>
@@ -12254,7 +12206,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.386704376796715</v>
+        <v>1.411182675908307</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.662548563762878</v>
@@ -12343,7 +12295,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.283449331418086</v>
+        <v>1.283717991169935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.534911742095155</v>
@@ -12432,7 +12384,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.2544600672835</v>
+        <v>1.264580221487312</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.540028062758515</v>
@@ -12521,7 +12473,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.264040067570837</v>
+        <v>1.279222094452553</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.54502497320714</v>
@@ -12807,7 +12759,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61540930676503</v>
+        <v>1.543479783441737</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.905875102332506</v>
@@ -12896,7 +12848,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.619614898863275</v>
+        <v>1.549399743743</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.640086575612399</v>
@@ -12985,7 +12937,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643151233948802</v>
+        <v>1.568959061807141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.380635680244302</v>
@@ -13074,7 +13026,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.650168069451104</v>
+        <v>1.576849087351879</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.402138423281317</v>
@@ -13163,7 +13115,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.64977687361512</v>
+        <v>1.586211246901507</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.532826833655075</v>
@@ -13252,7 +13204,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659173599805135</v>
+        <v>1.595687228402002</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.529806336247744</v>
@@ -13341,7 +13293,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667231104314225</v>
+        <v>1.60187937342905</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.017723095481497</v>
@@ -13430,7 +13382,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.675533944728827</v>
+        <v>1.608991529751972</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.601012031106507</v>
@@ -13519,7 +13471,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.677619186465296</v>
+        <v>1.610964927116585</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.44496545445416</v>
@@ -13608,7 +13560,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.678472272813409</v>
+        <v>1.615022408355841</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.226452791823472</v>
@@ -13697,7 +13649,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.672621851019349</v>
+        <v>1.613502186594971</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.446993331974601</v>
@@ -13786,7 +13738,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.677155537841894</v>
+        <v>1.621826578332691</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.857115627103828</v>
@@ -13875,7 +13827,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.672753696964356</v>
+        <v>1.626004577688036</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.882968047608508</v>
@@ -13964,7 +13916,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653045152476539</v>
+        <v>1.614884102948601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.179891134000417</v>
@@ -14053,7 +14005,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636024961210438</v>
+        <v>1.600626247166065</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.294608956368011</v>
@@ -14142,7 +14094,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.62545663577425</v>
+        <v>1.594437862821425</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.18473304649571</v>
@@ -14231,7 +14183,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.631444182437644</v>
+        <v>1.594477212616948</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.178745699630138</v>
@@ -14320,7 +14272,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591249424616745</v>
+        <v>1.556796368288582</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.383985749633778</v>
@@ -14409,7 +14361,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556098439666277</v>
+        <v>1.524555598387487</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.290949902812045</v>
@@ -14498,7 +14450,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516119715373912</v>
+        <v>1.4931446131033</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.408634027248287</v>
@@ -14587,7 +14539,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.489705851607565</v>
+        <v>1.467003206030096</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.420700610746566</v>
@@ -14676,7 +14628,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455815405736231</v>
+        <v>1.438783497535687</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.346172136313112</v>
@@ -14765,7 +14717,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452786387608926</v>
+        <v>1.43523865811503</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.388952548858073</v>
@@ -14854,7 +14806,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.439183641568317</v>
+        <v>1.42033887476111</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.350476066470649</v>
@@ -14943,7 +14895,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.364031334740835</v>
+        <v>1.339938923421303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.645534493065565</v>
@@ -15032,7 +14984,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.338487841878535</v>
+        <v>1.327823653844821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.646614577125908</v>
@@ -15121,7 +15073,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.336658441554521</v>
+        <v>1.332172824214007</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.664053559455564</v>
@@ -15210,7 +15162,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.331205716681561</v>
+        <v>1.327253386025373</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.661195192949056</v>
@@ -15299,7 +15251,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.353201161512791</v>
+        <v>1.355080645219102</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.688852578940069</v>
@@ -15388,7 +15340,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.355795880464161</v>
+        <v>1.354556713081054</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.696004641437322</v>
@@ -15477,7 +15429,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.346205546761738</v>
+        <v>1.347021456224502</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.680114361970476</v>
@@ -15566,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337717108636602</v>
+        <v>1.340166548593082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.6751559219823</v>
@@ -15655,7 +15607,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.345154149874645</v>
+        <v>1.34848438745295</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.649780955847621</v>
@@ -15744,7 +15696,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.354587779872472</v>
+        <v>1.358766364822856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.669003538954882</v>
@@ -15833,7 +15785,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.364202188337204</v>
+        <v>1.368034003318636</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.635699425976625</v>
@@ -15922,7 +15874,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.357472864646145</v>
+        <v>1.362903947072253</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.639721391801945</v>
@@ -16011,7 +15963,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.368106948045027</v>
+        <v>1.374980867209001</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.621909587177326</v>
@@ -16100,7 +16052,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.366369540468702</v>
+        <v>1.371984828294369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.616405732205078</v>
@@ -16189,7 +16141,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.36910842450857</v>
+        <v>1.375056306293575</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.609336796273219</v>
@@ -16278,7 +16230,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.481217405944335</v>
+        <v>1.492232102723041</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.144623103161957</v>
@@ -16367,7 +16319,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.500746920207363</v>
+        <v>1.501940222369243</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.268741449296478</v>
@@ -16456,7 +16408,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.50150279430047</v>
+        <v>1.482864042771002</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.537021269685412</v>
@@ -16545,7 +16497,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.33438563206103</v>
+        <v>1.316186651486731</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.476459964753488</v>
@@ -16634,7 +16586,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.30576575559414</v>
+        <v>1.293992879478677</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.470135465031072</v>
@@ -16723,7 +16675,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.32169568769262</v>
+        <v>1.316396119401588</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.47188408624474</v>
@@ -16812,7 +16764,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.412087531885762</v>
+        <v>1.423428161036249</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.52814622735065</v>
@@ -16901,7 +16853,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.424984431380929</v>
+        <v>1.440052782692596</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.544553461441794</v>
@@ -16990,7 +16942,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.400142952794817</v>
+        <v>1.415385289611201</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.558618177488883</v>
@@ -17079,7 +17031,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.292788759946115</v>
+        <v>1.290660361154678</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.551087518499537</v>
@@ -17168,7 +17120,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.276493439215762</v>
+        <v>1.275010512955125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.555511775040923</v>
@@ -17257,7 +17209,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.29977287967623</v>
+        <v>1.303999152354859</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.565817584876684</v>
@@ -17543,7 +17495,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.471140108973736</v>
+        <v>1.43151110620536</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.535884872265716</v>
@@ -17632,7 +17584,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472460459565923</v>
+        <v>1.434140083777379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.461606549807956</v>
@@ -17721,7 +17673,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.480588040165603</v>
+        <v>1.446345948042517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.483157972266688</v>
@@ -17810,7 +17762,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488434600589915</v>
+        <v>1.451714785928296</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.452494429983317</v>
@@ -17899,7 +17851,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.482255243040726</v>
+        <v>1.448336975847489</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.538803859212272</v>
@@ -17988,7 +17940,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492118896273225</v>
+        <v>1.46088907963358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.723071496518986</v>
@@ -18077,7 +18029,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.495102082533263</v>
+        <v>1.466173816216885</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.756544174947957</v>
@@ -18166,7 +18118,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.505767769169604</v>
+        <v>1.47630630115482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.586715820367926</v>
@@ -18255,7 +18207,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.473130418665616</v>
+        <v>1.449233449299649</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.514489049942545</v>
@@ -18344,7 +18296,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483350160214383</v>
+        <v>1.459720481177374</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.453117190930913</v>
@@ -18433,7 +18385,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465728463000707</v>
+        <v>1.446948020191567</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.433031747718799</v>
@@ -18522,7 +18474,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.471350323259653</v>
+        <v>1.456732497030825</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.402092563188253</v>
@@ -18611,7 +18563,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.4761812855778</v>
+        <v>1.46298842823146</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.427250682960248</v>
@@ -18700,7 +18652,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.461963723446864</v>
+        <v>1.449749039624757</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.424254570873597</v>
@@ -18789,7 +18741,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.450735797069766</v>
+        <v>1.435616985457281</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.512244355368664</v>
@@ -18878,7 +18830,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.46884436431325</v>
+        <v>1.45406332492659</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.418631997337545</v>
@@ -18967,7 +18919,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.469964056202641</v>
+        <v>1.452097831489345</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.478586866910661</v>
@@ -19056,7 +19008,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466937845722464</v>
+        <v>1.442729548722164</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.475106081485855</v>
@@ -19145,7 +19097,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.440583881180108</v>
+        <v>1.412190603887078</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.168409278036382</v>
@@ -19234,7 +19186,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.407225813937394</v>
+        <v>1.382269177769027</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.416780255248839</v>
@@ -19323,7 +19275,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.399651597534346</v>
+        <v>1.372665410303574</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.4739935596885</v>
@@ -19412,7 +19364,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.382833151033796</v>
+        <v>1.356789690303204</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.143308962668121</v>
@@ -19501,7 +19453,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.381731866605881</v>
+        <v>1.35380890449764</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.157649671878196</v>
@@ -19590,7 +19542,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.388435057696224</v>
+        <v>1.361199642412467</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.180150959246375</v>
@@ -19679,7 +19631,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.307474018509829</v>
+        <v>1.274518380713565</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.572194803667069</v>
@@ -19768,7 +19720,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.299405876078999</v>
+        <v>1.28231457297638</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.594238627571451</v>
@@ -19857,7 +19809,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.293895680363369</v>
+        <v>1.277984956496451</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.595953590464542</v>
@@ -19946,7 +19898,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.294314095924562</v>
+        <v>1.276786539768781</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.591019821357035</v>
@@ -20035,7 +19987,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.297676094501239</v>
+        <v>1.276931480705713</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.58648585485971</v>
@@ -20124,7 +20076,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.302340128590783</v>
+        <v>1.278831964389892</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.595665800854677</v>
@@ -20213,7 +20165,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.299078454238223</v>
+        <v>1.279412779919491</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.59120605610842</v>
@@ -20302,7 +20254,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.298849825485794</v>
+        <v>1.279769058324739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.588555334363397</v>
@@ -20391,7 +20343,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.301031856217552</v>
+        <v>1.284515651709173</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.589054804489908</v>
@@ -20480,7 +20432,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.306212734227311</v>
+        <v>1.289110260879395</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.590332060468332</v>
@@ -20569,7 +20521,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.319227833774881</v>
+        <v>1.300953023237889</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.572115980605417</v>
@@ -20658,7 +20610,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.308668525937897</v>
+        <v>1.29072957918715</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.549180075970475</v>
@@ -20747,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.314652932002072</v>
+        <v>1.293730669103998</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.537905832696686</v>
@@ -20836,7 +20788,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.318229215921969</v>
+        <v>1.295763017873588</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.541831348342883</v>
@@ -20925,7 +20877,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.322358138802711</v>
+        <v>1.299356412016211</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.535942316740154</v>
@@ -21014,7 +20966,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.466876473359228</v>
+        <v>1.432074143498437</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.2867121325046</v>
@@ -21103,7 +21055,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482921076414764</v>
+        <v>1.431609654761874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.363842320477786</v>
@@ -21192,7 +21144,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.47920101673275</v>
+        <v>1.425694598495419</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.57187727557091</v>
@@ -21281,7 +21233,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.406313282863598</v>
+        <v>1.367669775992043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.766423406757824</v>
@@ -21370,7 +21322,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.446485605142416</v>
+        <v>1.427831692300501</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.812210894555692</v>
@@ -21459,7 +21411,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.446906490280275</v>
+        <v>1.432647790874492</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.825520990356118</v>
@@ -21548,7 +21500,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.452186106374831</v>
+        <v>1.434448258609631</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.812663553813167</v>
@@ -21637,7 +21589,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.439432322311648</v>
+        <v>1.424134944974425</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.800092221361292</v>
@@ -21726,7 +21678,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.433428924715217</v>
+        <v>1.414385371493502</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.80107735749792</v>
@@ -21815,7 +21767,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.342343373392947</v>
+        <v>1.323713544757586</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.670478518086967</v>
@@ -21904,7 +21856,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.321080838356298</v>
+        <v>1.307986309500117</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.66345949695211</v>
@@ -21993,7 +21945,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.346082623977394</v>
+        <v>1.340883966873523</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.675327885813058</v>
@@ -22279,7 +22231,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.336273205042579</v>
+        <v>1.319675233287064</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.325395964927546</v>
@@ -22368,7 +22320,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.356258283559384</v>
+        <v>1.334712129128155</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.157667412995037</v>
@@ -22457,7 +22409,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381241332204775</v>
+        <v>1.363252087159777</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.403524447608831</v>
@@ -22546,7 +22498,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.389282681536108</v>
+        <v>1.373393626066091</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.325538617423078</v>
@@ -22635,7 +22587,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405170354729296</v>
+        <v>1.391501773381371</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.453821121655014</v>
@@ -22724,7 +22676,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.42494919856836</v>
+        <v>1.415280969347954</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.673676231262964</v>
@@ -22813,7 +22765,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445690300817168</v>
+        <v>1.438071648011346</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.744546183350974</v>
@@ -22902,7 +22854,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.467060857173356</v>
+        <v>1.452086226517543</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.762713522259885</v>
@@ -22991,7 +22943,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476542930821862</v>
+        <v>1.462230820494515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.787822950743466</v>
@@ -23080,7 +23032,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506860239861317</v>
+        <v>1.494273437886151</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.439911662029921</v>
@@ -23169,7 +23121,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.533870476723571</v>
+        <v>1.521647376211495</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.149552908277838</v>
@@ -23258,7 +23210,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.53338041392473</v>
+        <v>1.522598515895576</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.193467139556569</v>
@@ -23347,7 +23299,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.54800286336452</v>
+        <v>1.533435130668101</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.941953923516446</v>
@@ -23436,7 +23388,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554641755890646</v>
+        <v>1.53810413267749</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.793562645001276</v>
@@ -23525,7 +23477,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5494328449848</v>
+        <v>1.533529868824333</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.172346704191906</v>
@@ -23614,7 +23566,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.540676848904481</v>
+        <v>1.526395490226865</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.136408055936022</v>
@@ -23703,7 +23655,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547262939725763</v>
+        <v>1.533944735804509</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.341077378954434</v>
@@ -23792,7 +23744,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549631862603623</v>
+        <v>1.537021257624532</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.243910214637954</v>
@@ -23881,7 +23833,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537287162337282</v>
+        <v>1.524849346188764</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.911633610276931</v>
@@ -23970,7 +23922,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549002206775515</v>
+        <v>1.528015824540895</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.754116194933523</v>
@@ -24059,7 +24011,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.51605418056405</v>
+        <v>1.496417930759971</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.865376554783275</v>
@@ -24148,7 +24100,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.482277095262733</v>
+        <v>1.469593810013037</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.481514444067287</v>
@@ -24237,7 +24189,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.457160502894015</v>
+        <v>1.45163657440106</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.407050513314958</v>
@@ -24326,7 +24278,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.421344624661347</v>
+        <v>1.421788034037291</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.455741355782756</v>
@@ -24415,7 +24367,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.357539802750376</v>
+        <v>1.347945710659705</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.783422495537946</v>
@@ -24504,7 +24456,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.333987951623319</v>
+        <v>1.330834832201799</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.77100262563622</v>
@@ -24593,7 +24545,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.330665270509576</v>
+        <v>1.327233860082569</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.779114077551185</v>
@@ -24682,7 +24634,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.327301721167528</v>
+        <v>1.323886138944937</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.778838928121844</v>
@@ -24771,7 +24723,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.330722633626794</v>
+        <v>1.325514993043633</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.774227251310481</v>
@@ -24860,7 +24812,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.339511068406616</v>
+        <v>1.33602509702708</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.767537041726092</v>
@@ -24949,7 +24901,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.343652473292722</v>
+        <v>1.34267480122234</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.795326903563942</v>
@@ -25038,7 +24990,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337762165460424</v>
+        <v>1.338986474146634</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.785550730508415</v>
@@ -25127,7 +25079,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.336307446674935</v>
+        <v>1.336052660507276</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.781435462300076</v>
@@ -25216,7 +25168,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.337036305636167</v>
+        <v>1.34070762876556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.750009093665501</v>
@@ -25305,7 +25257,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338824015552024</v>
+        <v>1.343129817352329</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.737132825504618</v>
@@ -25394,7 +25346,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.336232873873756</v>
+        <v>1.335999927281051</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.706263376114818</v>
@@ -25483,7 +25435,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.343645532007573</v>
+        <v>1.345624854221914</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.736563688761261</v>
@@ -25572,7 +25524,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.350583934066234</v>
+        <v>1.350227552804744</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.726456852295155</v>
@@ -25661,7 +25613,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.377395460894387</v>
+        <v>1.374961503505947</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.71066454593136</v>
@@ -25750,7 +25702,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451114275533632</v>
+        <v>1.454946218487605</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.549098827219898</v>
@@ -25839,7 +25791,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.46265991048841</v>
+        <v>1.462278717760924</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.49683118368884</v>
@@ -25928,7 +25880,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.453978921619458</v>
+        <v>1.459567152261724</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.886665638147393</v>
@@ -26017,7 +25969,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.404846593993458</v>
+        <v>1.415633952261128</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.99808709611778</v>
@@ -26106,7 +26058,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.431561283064653</v>
+        <v>1.455221231920925</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.988404738929654</v>
@@ -26195,7 +26147,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.426231115279348</v>
+        <v>1.451579618557028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.003774552731248</v>
@@ -26284,7 +26236,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.426155697291507</v>
+        <v>1.450232217427421</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.995922442026952</v>
@@ -26373,7 +26325,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.421360853280026</v>
+        <v>1.447505976564419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.013512318940643</v>
@@ -26462,7 +26414,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.416795608719204</v>
+        <v>1.440410499281791</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.999193897159075</v>
@@ -26551,7 +26503,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.363952577932863</v>
+        <v>1.376428407587696</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.834047575908667</v>
@@ -26640,7 +26592,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.345433807504426</v>
+        <v>1.359257190631191</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.834315976216788</v>
@@ -26729,7 +26681,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.37194926238852</v>
+        <v>1.391916282128151</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.838421010121302</v>
@@ -27015,7 +26967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485171038188926</v>
+        <v>1.460576940388437</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.530344278133253</v>
@@ -27104,7 +27056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492664090969476</v>
+        <v>1.463076798826002</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.549655682270573</v>
@@ -27193,7 +27145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50614928594315</v>
+        <v>1.467439152861086</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.230484416251825</v>
@@ -27282,7 +27234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524534563666054</v>
+        <v>1.484528795107546</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.958026791193426</v>
@@ -27371,7 +27323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.525035112696402</v>
+        <v>1.482921848731807</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.021824880939896</v>
@@ -27460,7 +27412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517537571848138</v>
+        <v>1.476095333127145</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.586930105377585</v>
@@ -27549,7 +27501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.510574287245673</v>
+        <v>1.45704704906342</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.755306735848642</v>
@@ -27638,7 +27590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499514271894044</v>
+        <v>1.442356159205806</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.828808653642269</v>
@@ -27727,7 +27679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.477650079521667</v>
+        <v>1.422170160239488</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.79131515777021</v>
@@ -27816,7 +27768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.459376910920156</v>
+        <v>1.408399525401529</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.772113335699288</v>
@@ -27905,7 +27857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.453673100430123</v>
+        <v>1.395903317834868</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.983254591978906</v>
@@ -27994,7 +27946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.439897050645175</v>
+        <v>1.380552021541948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.839101046032308</v>
@@ -28083,7 +28035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.42847526894683</v>
+        <v>1.368424474395204</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.750323235066451</v>
@@ -28172,7 +28124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.396612268740146</v>
+        <v>1.345235116974956</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.441965861009642</v>
@@ -28261,7 +28213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.383922799256279</v>
+        <v>1.33268384423297</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.359340294150211</v>
@@ -28350,7 +28302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.382404775916474</v>
+        <v>1.333590237734297</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.450570701902015</v>
@@ -28439,7 +28391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.384798601245173</v>
+        <v>1.334055751779042</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.488731888652945</v>
@@ -28528,7 +28480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.381585598462731</v>
+        <v>1.329278856972674</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.491913500492893</v>
@@ -28617,7 +28569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.374105877904506</v>
+        <v>1.323768181010598</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.514836585607541</v>
@@ -28706,7 +28658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.378537035118505</v>
+        <v>1.326802117172682</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.451305083472818</v>
@@ -28795,7 +28747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.372312986406619</v>
+        <v>1.322146551149086</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.546790081406524</v>
@@ -28884,7 +28836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.353555584028004</v>
+        <v>1.31514965390114</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.442831004047526</v>
@@ -28973,7 +28925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346068818773537</v>
+        <v>1.308989898535243</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.364096148407182</v>
@@ -29062,7 +29014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.339096461028026</v>
+        <v>1.301606354750414</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.511165597976305</v>
@@ -29151,7 +29103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.316522067394531</v>
+        <v>1.275976342246278</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.777099017734618</v>
@@ -29240,7 +29192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.311242341412167</v>
+        <v>1.282423746407817</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.805232527950811</v>
@@ -29329,7 +29281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.311353282570841</v>
+        <v>1.283381267936305</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.756743551440125</v>
@@ -29418,7 +29370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.315330879156536</v>
+        <v>1.286927929875699</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.787706650818048</v>
@@ -29507,7 +29459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.321831996782092</v>
+        <v>1.296891930822978</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.779220763803647</v>
@@ -29596,7 +29548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.321840163566455</v>
+        <v>1.29586778354478</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.76471846000816</v>
@@ -29685,7 +29637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.326000310351187</v>
+        <v>1.301181610929625</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.744504397711932</v>
@@ -29774,7 +29726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.320417210633965</v>
+        <v>1.299609880455207</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.779602840252644</v>
@@ -29863,7 +29815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.320471849832968</v>
+        <v>1.305129651511986</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.764674097065352</v>
@@ -29952,7 +29904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.324475642048613</v>
+        <v>1.308711922164919</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.735212477255089</v>
@@ -30041,7 +29993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.315209088497634</v>
+        <v>1.298751435265767</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.707707089477137</v>
@@ -30130,7 +30082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312624776732862</v>
+        <v>1.298281342583457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.675778687070694</v>
@@ -30219,7 +30171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.321502045983797</v>
+        <v>1.304834295812653</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.736494464829884</v>
@@ -30308,7 +30260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.322722398923389</v>
+        <v>1.302517445519666</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.699821893444155</v>
@@ -30397,7 +30349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.323226815444359</v>
+        <v>1.302153519161381</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.723481928960765</v>
@@ -30486,7 +30438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.378956425735113</v>
+        <v>1.356949711723709</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.268383789871823</v>
@@ -30575,7 +30527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.372227834566685</v>
+        <v>1.3464442139451</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.288235293173655</v>
@@ -30664,7 +30616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.363124862857678</v>
+        <v>1.34055862926037</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.325861603673772</v>
@@ -30753,7 +30705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.322642776558858</v>
+        <v>1.3099815065363</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.856103639817207</v>
@@ -30842,7 +30794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.348720062649228</v>
+        <v>1.345018375386708</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.871038209957055</v>
@@ -30931,7 +30883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.351776975110725</v>
+        <v>1.351707606532603</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.875287996592275</v>
@@ -31020,7 +30972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.347912055784591</v>
+        <v>1.344063660399539</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.870667844339191</v>
@@ -31109,7 +31061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.344113188109943</v>
+        <v>1.339396066742564</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.85835875513955</v>
@@ -31198,7 +31150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.343690662582713</v>
+        <v>1.329958649105183</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.848384208438486</v>
@@ -31287,7 +31239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.307988394921572</v>
+        <v>1.289502229810534</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.711770607721391</v>
@@ -31376,7 +31328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.309544177111854</v>
+        <v>1.289882775541094</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.683077143190447</v>
@@ -31465,7 +31417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.337167647371937</v>
+        <v>1.326722756705996</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.705688764600035</v>
